--- a/data/g_vs_random_1_checkers.xlsx
+++ b/data/g_vs_random_1_checkers.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Win rate</t>
@@ -446,731 +451,619 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>52.2</v>
+        <v>53.9</v>
       </c>
       <c r="C2" t="n">
-        <v>24.476</v>
+        <v>23.941</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>24.171</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>53.6</v>
       </c>
-      <c r="C3" t="n">
-        <v>24.572</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>52.5</v>
-      </c>
       <c r="C4" t="n">
-        <v>23.958</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52.8</v>
+        <v>55.9</v>
       </c>
       <c r="C5" t="n">
-        <v>24.606</v>
+        <v>23.862</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52.4</v>
+        <v>54.6</v>
       </c>
       <c r="C6" t="n">
-        <v>23.479</v>
+        <v>24.178</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55.6</v>
+        <v>52.6</v>
       </c>
       <c r="C7" t="n">
-        <v>24.169</v>
+        <v>24.448</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>54.1</v>
+        <v>53.7</v>
       </c>
       <c r="C8" t="n">
-        <v>24.2</v>
+        <v>24.237</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>52.8</v>
+        <v>51.3</v>
       </c>
       <c r="C9" t="n">
-        <v>24.243</v>
+        <v>24.362</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="C10" t="n">
-        <v>24.137</v>
+        <v>23.846</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>54.6</v>
+        <v>55.2</v>
       </c>
       <c r="C11" t="n">
         <v>23.907</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="C12" t="n">
-        <v>24.234</v>
+        <v>24.169</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="C13" t="n">
-        <v>24.221</v>
+        <v>23.942</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>55.6</v>
+        <v>51.6</v>
       </c>
       <c r="C14" t="n">
-        <v>24.54</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>56.3</v>
+        <v>56.7</v>
       </c>
       <c r="C15" t="n">
-        <v>23.877</v>
+        <v>24.009</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="B16" t="n">
-        <v>51.2</v>
+        <v>53.8</v>
       </c>
       <c r="C16" t="n">
-        <v>24.404</v>
+        <v>23.464</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>51.2</v>
+        <v>54.8</v>
       </c>
       <c r="C17" t="n">
-        <v>23.899</v>
+        <v>23.811</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>54.6</v>
+        <v>53.7</v>
       </c>
       <c r="C18" t="n">
-        <v>24.355</v>
+        <v>24.245</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="B19" t="n">
-        <v>56.1</v>
+        <v>53.7</v>
       </c>
       <c r="C19" t="n">
-        <v>24.274</v>
+        <v>24.222</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="B20" t="n">
         <v>52.4</v>
       </c>
       <c r="C20" t="n">
-        <v>24.3</v>
+        <v>24.008</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>55.5</v>
+        <v>53.1</v>
       </c>
       <c r="C21" t="n">
-        <v>23.677</v>
+        <v>24.046</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="B22" t="n">
-        <v>53.8</v>
+        <v>54.7</v>
       </c>
       <c r="C22" t="n">
-        <v>23.821</v>
+        <v>24.213</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="B23" t="n">
-        <v>54.7</v>
+        <v>53.9</v>
       </c>
       <c r="C23" t="n">
-        <v>23.729</v>
+        <v>24.074</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="B24" t="n">
-        <v>55.7</v>
+        <v>53.6</v>
       </c>
       <c r="C24" t="n">
-        <v>24.189</v>
+        <v>24.181</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="B25" t="n">
-        <v>54.5</v>
+        <v>53.1</v>
       </c>
       <c r="C25" t="n">
-        <v>23.819</v>
+        <v>23.891</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="B26" t="n">
         <v>53.9</v>
       </c>
       <c r="C26" t="n">
+        <v>24.332</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B27" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>23.936</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B28" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>24.306</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B29" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>23.583</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B30" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24.144</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B31" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>24.637</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>24.406</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B33" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>23.912</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B34" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>23.73</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B35" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>23.507</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B36" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>24.218</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23.965</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B38" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>24.045</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B39" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>24.24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B40" t="n">
+        <v>55</v>
+      </c>
+      <c r="C40" t="n">
+        <v>23.721</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B41" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="C41" t="n">
+        <v>23.455</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B42" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="C42" t="n">
+        <v>24.271</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B43" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>24.02</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B44" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>23.912</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B45" t="n">
+        <v>54</v>
+      </c>
+      <c r="C45" t="n">
+        <v>24.954</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B46" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>24.598</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B47" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="C47" t="n">
+        <v>24.144</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B48" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>23.895</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B49" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>24.111</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B50" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>23.911</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B51" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>23.772</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="C52" t="n">
+        <v>24.207</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B53" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="C53" t="n">
         <v>24.222</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="C27" t="n">
-        <v>23.881</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B54" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>24.123</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B55" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>24.726</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B56" t="n">
         <v>53.9</v>
       </c>
-      <c r="C28" t="n">
-        <v>23.713</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="C29" t="n">
-        <v>24.016</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>24.154</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C31" t="n">
-        <v>24.783</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="C32" t="n">
-        <v>24.009</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="C33" t="n">
-        <v>24.511</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="C34" t="n">
-        <v>24.021</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C35" t="n">
-        <v>24.19</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="C36" t="n">
-        <v>24.101</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="C37" t="n">
-        <v>24.038</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="C38" t="n">
-        <v>24.352</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>52</v>
-      </c>
-      <c r="C39" t="n">
-        <v>24.26</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="C40" t="n">
-        <v>24.05</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="C41" t="n">
-        <v>23.988</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="C42" t="n">
-        <v>24.771</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>23.996</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="C44" t="n">
-        <v>24.113</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C45" t="n">
-        <v>24.273</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C46" t="n">
-        <v>23.54</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="C47" t="n">
-        <v>23.696</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="C48" t="n">
-        <v>24.102</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>55</v>
-      </c>
-      <c r="C49" t="n">
-        <v>24.425</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="C50" t="n">
-        <v>24.313</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>24.806</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="C52" t="n">
-        <v>24.203</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="C53" t="n">
-        <v>24.197</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="C54" t="n">
-        <v>24.635</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>23.747</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>52.9</v>
-      </c>
       <c r="C56" t="n">
-        <v>23.938</v>
+        <v>24.165</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="A57" s="1" t="n">
+        <v>75</v>
       </c>
       <c r="B57" t="n">
-        <v>55.6</v>
+        <v>56.5</v>
       </c>
       <c r="C57" t="n">
-        <v>23.759</v>
+        <v>23.855</v>
       </c>
     </row>
   </sheetData>
